--- a/output/1Y_P28_KFSDIV.xlsx
+++ b/output/1Y_P28_KFSDIV.xlsx
@@ -727,16 +727,16 @@
         <v>13.1788</v>
       </c>
       <c r="C2" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D2" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="H2" s="1">
         <v>0</v>
@@ -771,31 +771,31 @@
         <v>14.5668</v>
       </c>
       <c r="C3" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D3" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E3" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>686.4926</v>
+        <v>685.1192</v>
       </c>
       <c r="H3" s="1">
-        <v>11053.2067</v>
+        <v>11009.0722</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11053.2067</v>
+        <v>11009.0722</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -810,7 +810,7 @@
         <v>-10000</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.1053</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -821,46 +821,46 @@
         <v>13.962</v>
       </c>
       <c r="C4" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D4" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E4" s="1">
-        <v>1445.287</v>
+        <v>1442.3966</v>
       </c>
       <c r="F4" s="1">
-        <v>716.2298</v>
+        <v>714.7963</v>
       </c>
       <c r="H4" s="1">
-        <v>20179.0971</v>
+        <v>20098.4991</v>
       </c>
       <c r="I4" s="1">
         <v>0</v>
       </c>
       <c r="J4" s="1">
-        <v>20179.0971</v>
+        <v>20098.4991</v>
       </c>
       <c r="K4" s="1">
         <v>20000</v>
       </c>
       <c r="L4" s="1">
-        <v>13.8381</v>
+        <v>13.8658</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>341.4575</v>
+        <v>340.7748</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-9658.5425</v>
+        <v>-9659.225200000001</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0415</v>
+        <v>-0.0433</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -871,31 +871,31 @@
         <v>12.2659</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E5" s="1">
-        <v>2161.5168</v>
+        <v>2157.1929</v>
       </c>
       <c r="F5" s="1">
-        <v>818.3615</v>
+        <v>816.7173</v>
       </c>
       <c r="H5" s="1">
-        <v>26512.9485</v>
+        <v>26407.0615</v>
       </c>
       <c r="I5" s="1">
-        <v>341.4575</v>
+        <v>340.7748</v>
       </c>
       <c r="J5" s="1">
-        <v>26854.406</v>
+        <v>26747.8364</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.8791</v>
+        <v>13.907</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -907,10 +907,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10037.9397</v>
+        <v>-10037.8639</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.1102</v>
+        <v>-0.1113</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -921,31 +921,31 @@
         <v>12.4103</v>
       </c>
       <c r="C6" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D6" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E6" s="1">
-        <v>2979.8782</v>
+        <v>2973.9102</v>
       </c>
       <c r="F6" s="1">
-        <v>808.8394</v>
+        <v>807.2137</v>
       </c>
       <c r="H6" s="1">
-        <v>36981.1826</v>
+        <v>36833.365</v>
       </c>
       <c r="I6" s="1">
-        <v>303.5178</v>
+        <v>302.911</v>
       </c>
       <c r="J6" s="1">
-        <v>37284.7004</v>
+        <v>37136.276</v>
       </c>
       <c r="K6" s="1">
-        <v>40037.9397</v>
+        <v>40037.8639</v>
       </c>
       <c r="L6" s="1">
-        <v>13.4361</v>
+        <v>13.463</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -957,10 +957,10 @@
         <v>10000</v>
       </c>
       <c r="P6" s="1">
-        <v>-10037.9397</v>
+        <v>-10037.8639</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0117</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -971,46 +971,46 @@
         <v>12.3976</v>
       </c>
       <c r="C7" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D7" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E7" s="1">
-        <v>3788.7176</v>
+        <v>3781.1239</v>
       </c>
       <c r="F7" s="1">
-        <v>809.668</v>
+        <v>808.0454999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>46971.0056</v>
+        <v>46783.0901</v>
       </c>
       <c r="I7" s="1">
-        <v>265.578</v>
+        <v>265.0471</v>
       </c>
       <c r="J7" s="1">
-        <v>47236.5837</v>
+        <v>47048.1372</v>
       </c>
       <c r="K7" s="1">
-        <v>50075.8794</v>
+        <v>50075.7277</v>
       </c>
       <c r="L7" s="1">
-        <v>13.2171</v>
+        <v>13.2436</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1340.9452</v>
+        <v>1338.2596</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8696.994500000001</v>
+        <v>-8699.604300000001</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.001</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1021,31 +1021,31 @@
         <v>12.9013</v>
       </c>
       <c r="C8" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D8" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E8" s="1">
-        <v>4598.3856</v>
+        <v>4589.1694</v>
       </c>
       <c r="F8" s="1">
-        <v>795.3733999999999</v>
+        <v>793.7455</v>
       </c>
       <c r="H8" s="1">
-        <v>59325.1522</v>
+        <v>59087.8504</v>
       </c>
       <c r="I8" s="1">
-        <v>1568.5835</v>
+        <v>1565.4428</v>
       </c>
       <c r="J8" s="1">
-        <v>60893.7357</v>
+        <v>60653.2932</v>
       </c>
       <c r="K8" s="1">
-        <v>60113.8192</v>
+        <v>60113.5916</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0728</v>
+        <v>13.099</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1057,10 +1057,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10261.4306</v>
+        <v>-10260.9071</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0639</v>
+        <v>0.06320000000000001</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1071,31 +1071,31 @@
         <v>13.3527</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E9" s="1">
-        <v>5393.759</v>
+        <v>5382.9149</v>
       </c>
       <c r="F9" s="1">
-        <v>768.4911</v>
+        <v>766.9126</v>
       </c>
       <c r="H9" s="1">
-        <v>72021.2461</v>
+        <v>71732.72410000001</v>
       </c>
       <c r="I9" s="1">
-        <v>1307.1529</v>
+        <v>1304.5357</v>
       </c>
       <c r="J9" s="1">
-        <v>73328.399</v>
+        <v>73037.2597</v>
       </c>
       <c r="K9" s="1">
-        <v>70375.24980000001</v>
+        <v>70374.4988</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0475</v>
+        <v>13.0737</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1107,10 +1107,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-10261.4306</v>
+        <v>-10260.9071</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0343</v>
+        <v>0.0337</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1121,46 +1121,46 @@
         <v>13.8804</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E10" s="1">
-        <v>6162.2501</v>
+        <v>6149.8275</v>
       </c>
       <c r="F10" s="1">
-        <v>739.2748</v>
+        <v>737.7595</v>
       </c>
       <c r="H10" s="1">
-        <v>85534.496</v>
+        <v>85191.1005</v>
       </c>
       <c r="I10" s="1">
-        <v>1045.7224</v>
+        <v>1043.6286</v>
       </c>
       <c r="J10" s="1">
-        <v>86580.2184</v>
+        <v>86234.7291</v>
       </c>
       <c r="K10" s="1">
-        <v>80636.68030000001</v>
+        <v>80635.4059</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0856</v>
+        <v>13.1118</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2427.1916</v>
+        <v>2422.3117</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-7834.239</v>
+        <v>-7838.5954</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.039</v>
+        <v>0.0385</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1171,31 +1171,31 @@
         <v>14.6268</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E11" s="1">
-        <v>6901.5249</v>
+        <v>6887.587</v>
       </c>
       <c r="F11" s="1">
-        <v>756.8637</v>
+        <v>755.2039</v>
       </c>
       <c r="H11" s="1">
-        <v>100947.2248</v>
+        <v>100542.2406</v>
       </c>
       <c r="I11" s="1">
-        <v>3211.4833</v>
+        <v>3205.0331</v>
       </c>
       <c r="J11" s="1">
-        <v>104158.7081</v>
+        <v>103747.2737</v>
       </c>
       <c r="K11" s="1">
-        <v>90898.1109</v>
+        <v>90896.31299999999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1707</v>
+        <v>13.1971</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1207,10 +1207,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-11070.4944</v>
+        <v>-11068.3444</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0785</v>
+        <v>0.0781</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -1221,31 +1221,31 @@
         <v>15.3636</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E12" s="1">
-        <v>7658.3887</v>
+        <v>7642.791</v>
       </c>
       <c r="F12" s="1">
-        <v>720.5664</v>
+        <v>718.9851</v>
       </c>
       <c r="H12" s="1">
-        <v>117660.42</v>
+        <v>117186.1497</v>
       </c>
       <c r="I12" s="1">
-        <v>2140.9889</v>
+        <v>2136.6887</v>
       </c>
       <c r="J12" s="1">
-        <v>119801.4089</v>
+        <v>119322.8385</v>
       </c>
       <c r="K12" s="1">
-        <v>101968.6054</v>
+        <v>101964.6574</v>
       </c>
       <c r="L12" s="1">
-        <v>13.3146</v>
+        <v>13.3413</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -1257,10 +1257,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-11070.4944</v>
+        <v>-11068.3444</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0494</v>
+        <v>0.049</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -1271,46 +1271,46 @@
         <v>13.8711</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E13" s="1">
-        <v>8378.955099999999</v>
+        <v>8361.776099999999</v>
       </c>
       <c r="F13" s="1">
-        <v>798.0978</v>
+        <v>796.3468</v>
       </c>
       <c r="H13" s="1">
-        <v>116225.324</v>
+        <v>115755.411</v>
       </c>
       <c r="I13" s="1">
-        <v>1070.4944</v>
+        <v>1068.3444</v>
       </c>
       <c r="J13" s="1">
-        <v>117295.8184</v>
+        <v>116823.7554</v>
       </c>
       <c r="K13" s="1">
-        <v>113039.0998</v>
+        <v>113033.0018</v>
       </c>
       <c r="L13" s="1">
-        <v>13.4908</v>
+        <v>13.5178</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3446.2749</v>
+        <v>3439.2559</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-7624.2195</v>
+        <v>-7629.0884</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0963</v>
+        <v>-0.09669999999999999</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -1321,31 +1321,31 @@
         <v>14.1252</v>
       </c>
       <c r="C14" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D14" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E14" s="1">
-        <v>9177.052900000001</v>
+        <v>9158.1229</v>
       </c>
       <c r="F14" s="1">
-        <v>-9177.052900000001</v>
+        <v>-9158.1229</v>
       </c>
       <c r="H14" s="1">
-        <v>129627.7076</v>
+        <v>129102.0581</v>
       </c>
       <c r="I14" s="1">
-        <v>3446.2749</v>
+        <v>3439.2559</v>
       </c>
       <c r="J14" s="1">
-        <v>133073.9825</v>
+        <v>132541.3141</v>
       </c>
       <c r="K14" s="1">
-        <v>124109.5942</v>
+        <v>124101.3462</v>
       </c>
       <c r="L14" s="1">
-        <v>13.5239</v>
+        <v>13.551</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -1357,10 +1357,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129627.7076</v>
+        <v>129102.0581</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0454</v>
+        <v>0.0451</v>
       </c>
     </row>
   </sheetData>
@@ -1456,16 +1456,16 @@
         <v>13.1788</v>
       </c>
       <c r="C2" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D2" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -1503,34 +1503,34 @@
         <v>14.5668</v>
       </c>
       <c r="C3" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D3" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E3" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>614.1907</v>
+        <v>618.456</v>
       </c>
       <c r="G3" s="1">
         <v>20000</v>
       </c>
       <c r="H3" s="1">
-        <v>11053.2067</v>
+        <v>11009.0722</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11053.2067</v>
+        <v>11009.0722</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -1542,10 +1542,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-8946.793299999999</v>
+        <v>-9026.9838</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.1053</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -1556,49 +1556,49 @@
         <v>13.962</v>
       </c>
       <c r="C4" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D4" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E4" s="1">
-        <v>1372.9851</v>
+        <v>1375.7334</v>
       </c>
       <c r="F4" s="1">
-        <v>775.7042</v>
+        <v>777.2581</v>
       </c>
       <c r="G4" s="1">
         <v>30000</v>
       </c>
       <c r="H4" s="1">
-        <v>19169.6186</v>
+        <v>19169.6073</v>
       </c>
       <c r="I4" s="1">
-        <v>1053.2067</v>
+        <v>973.0162</v>
       </c>
       <c r="J4" s="1">
-        <v>20222.8252</v>
+        <v>20142.6235</v>
       </c>
       <c r="K4" s="1">
-        <v>18946.7933</v>
+        <v>19026.9838</v>
       </c>
       <c r="L4" s="1">
-        <v>13.7997</v>
+        <v>13.8304</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>341.4575</v>
+        <v>340.7748</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10488.9239</v>
+        <v>-10533.0666</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0394</v>
+        <v>-0.0412</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -1609,34 +1609,34 @@
         <v>12.2659</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E5" s="1">
-        <v>2148.6893</v>
+        <v>2152.9916</v>
       </c>
       <c r="F5" s="1">
-        <v>861.2725</v>
+        <v>849.4325</v>
       </c>
       <c r="G5" s="1">
         <v>40000</v>
       </c>
       <c r="H5" s="1">
-        <v>26355.6081</v>
+        <v>26355.6311</v>
       </c>
       <c r="I5" s="1">
-        <v>564.2827</v>
+        <v>439.9496</v>
       </c>
       <c r="J5" s="1">
-        <v>26919.8908</v>
+        <v>26795.5808</v>
       </c>
       <c r="K5" s="1">
-        <v>29777.1748</v>
+        <v>29900.8252</v>
       </c>
       <c r="L5" s="1">
-        <v>13.8583</v>
+        <v>13.888</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -1648,10 +1648,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10564.2827</v>
+        <v>-10439.9496</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.1093</v>
+        <v>-0.111</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -1662,34 +1662,34 @@
         <v>12.4103</v>
       </c>
       <c r="C6" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D6" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E6" s="1">
-        <v>3009.9618</v>
+        <v>3002.424</v>
       </c>
       <c r="F6" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G6" s="1">
         <v>50000</v>
       </c>
       <c r="H6" s="1">
-        <v>37354.5293</v>
+        <v>37186.5229</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37354.5293</v>
+        <v>37186.5229</v>
       </c>
       <c r="K6" s="1">
-        <v>40341.4575</v>
+        <v>40340.7748</v>
       </c>
       <c r="L6" s="1">
-        <v>13.4026</v>
+        <v>13.4361</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -1704,7 +1704,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0118</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -1715,49 +1715,49 @@
         <v>12.3976</v>
       </c>
       <c r="C7" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D7" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E7" s="1">
-        <v>3815.7441</v>
+        <v>3806.5928</v>
       </c>
       <c r="F7" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G7" s="1">
         <v>60000</v>
       </c>
       <c r="H7" s="1">
-        <v>47306.0694</v>
+        <v>47098.212</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47306.0694</v>
+        <v>47098.212</v>
       </c>
       <c r="K7" s="1">
-        <v>50341.4575</v>
+        <v>50340.7748</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1931</v>
+        <v>13.2246</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1354.4828</v>
+        <v>1351.0908</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8645.5172</v>
+        <v>-8648.9092</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.001</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -1768,34 +1768,34 @@
         <v>12.9013</v>
       </c>
       <c r="C8" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D8" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E8" s="1">
-        <v>4622.3519</v>
+        <v>4611.5903</v>
       </c>
       <c r="F8" s="1">
-        <v>803.4579</v>
+        <v>825.0918</v>
       </c>
       <c r="G8" s="1">
         <v>70000</v>
       </c>
       <c r="H8" s="1">
-        <v>59634.348</v>
+        <v>59376.5306</v>
       </c>
       <c r="I8" s="1">
-        <v>1354.4828</v>
+        <v>1351.0908</v>
       </c>
       <c r="J8" s="1">
-        <v>60988.8308</v>
+        <v>60727.6214</v>
       </c>
       <c r="K8" s="1">
-        <v>60341.4575</v>
+        <v>60340.7748</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0543</v>
+        <v>13.0846</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -1807,10 +1807,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-10365.7324</v>
+        <v>-10666.1267</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0643</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -1821,34 +1821,34 @@
         <v>13.3527</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E9" s="1">
-        <v>5425.8098</v>
+        <v>5436.6821</v>
       </c>
       <c r="F9" s="1">
-        <v>565.4878</v>
+        <v>566.6197</v>
       </c>
       <c r="G9" s="1">
         <v>80000</v>
       </c>
       <c r="H9" s="1">
-        <v>72449.2105</v>
+        <v>72449.22530000001</v>
       </c>
       <c r="I9" s="1">
-        <v>988.7505</v>
+        <v>684.9641</v>
       </c>
       <c r="J9" s="1">
-        <v>73437.961</v>
+        <v>73134.1894</v>
       </c>
       <c r="K9" s="1">
-        <v>70707.18979999999</v>
+        <v>71006.90150000001</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0316</v>
+        <v>13.0607</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -1860,10 +1860,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7550.7895</v>
+        <v>-7581.0889</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.0345</v>
+        <v>0.034</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -1874,49 +1874,49 @@
         <v>13.8804</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E10" s="1">
-        <v>5991.2976</v>
+        <v>6003.3018</v>
       </c>
       <c r="F10" s="1">
-        <v>492.6654</v>
+        <v>493.6735</v>
       </c>
       <c r="G10" s="1">
         <v>90000</v>
       </c>
       <c r="H10" s="1">
-        <v>83161.6078</v>
+        <v>83161.33869999999</v>
       </c>
       <c r="I10" s="1">
-        <v>3437.961</v>
+        <v>3103.8753</v>
       </c>
       <c r="J10" s="1">
-        <v>86599.56879999999</v>
+        <v>86265.21400000001</v>
       </c>
       <c r="K10" s="1">
-        <v>78257.97930000001</v>
+        <v>78587.9904</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0619</v>
+        <v>13.0908</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2441.6144</v>
+        <v>2446.5069</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-4396.7778</v>
+        <v>-4419.6026</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0379</v>
+        <v>0.0377</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -1927,34 +1927,34 @@
         <v>14.6268</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E11" s="1">
-        <v>6483.963</v>
+        <v>6496.9753</v>
       </c>
       <c r="F11" s="1">
-        <v>352.8024</v>
+        <v>353.4659</v>
       </c>
       <c r="G11" s="1">
         <v>100000</v>
       </c>
       <c r="H11" s="1">
-        <v>94839.63</v>
+        <v>94840.2466</v>
       </c>
       <c r="I11" s="1">
-        <v>9041.183199999999</v>
+        <v>8684.2727</v>
       </c>
       <c r="J11" s="1">
-        <v>103880.8132</v>
+        <v>103524.5193</v>
       </c>
       <c r="K11" s="1">
-        <v>85096.37149999999</v>
+        <v>85454.0999</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1241</v>
+        <v>13.1529</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -1966,7 +1966,7 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-5160.37</v>
+        <v>-5180.4312</v>
       </c>
       <c r="Q11" s="3">
         <v>0.07539999999999999</v>
@@ -1980,34 +1980,34 @@
         <v>15.3636</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E12" s="1">
-        <v>6836.7654</v>
+        <v>6850.4412</v>
       </c>
       <c r="F12" s="1">
-        <v>323.0149</v>
+        <v>323.6746</v>
       </c>
       <c r="G12" s="1">
         <v>110000</v>
       </c>
       <c r="H12" s="1">
-        <v>105037.3287</v>
+        <v>105037.1294</v>
       </c>
       <c r="I12" s="1">
-        <v>13880.8132</v>
+        <v>13503.8415</v>
       </c>
       <c r="J12" s="1">
-        <v>118918.1419</v>
+        <v>118540.9709</v>
       </c>
       <c r="K12" s="1">
-        <v>90256.74159999999</v>
+        <v>90634.53109999999</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2017</v>
+        <v>13.2305</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2019,7 +2019,7 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-4962.6713</v>
+        <v>-4982.7766</v>
       </c>
       <c r="Q12" s="3">
         <v>0.0442</v>
@@ -2033,49 +2033,49 @@
         <v>13.8711</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E13" s="1">
-        <v>7159.7803</v>
+        <v>7174.1158</v>
       </c>
       <c r="F13" s="1">
-        <v>1491.3</v>
+        <v>1494.2749</v>
       </c>
       <c r="G13" s="1">
         <v>120000</v>
       </c>
       <c r="H13" s="1">
-        <v>99314.02800000001</v>
+        <v>99314.1545</v>
       </c>
       <c r="I13" s="1">
-        <v>18918.1419</v>
+        <v>18521.0649</v>
       </c>
       <c r="J13" s="1">
-        <v>118232.1699</v>
+        <v>117835.2195</v>
       </c>
       <c r="K13" s="1">
-        <v>95219.41280000001</v>
+        <v>95617.3077</v>
       </c>
       <c r="L13" s="1">
-        <v>13.2992</v>
+        <v>13.3281</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3076.5444</v>
+        <v>3082.6985</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-17609.4276</v>
+        <v>-17686.0792</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0829</v>
+        <v>-0.0833</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2086,34 +2086,34 @@
         <v>14.1252</v>
       </c>
       <c r="C14" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D14" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E14" s="1">
-        <v>8651.0803</v>
+        <v>8668.3907</v>
       </c>
       <c r="F14" s="1">
-        <v>-8651.0803</v>
+        <v>-8668.3907</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>122198.2395</v>
+        <v>122198.3039</v>
       </c>
       <c r="I14" s="1">
-        <v>11308.7143</v>
+        <v>10834.9857</v>
       </c>
       <c r="J14" s="1">
-        <v>133506.9538</v>
+        <v>133033.2896</v>
       </c>
       <c r="K14" s="1">
-        <v>115905.3849</v>
+        <v>116386.0854</v>
       </c>
       <c r="L14" s="1">
-        <v>13.3978</v>
+        <v>13.4265</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2125,10 +2125,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>122198.2395</v>
+        <v>122198.3039</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0411</v>
+        <v>0.0407</v>
       </c>
     </row>
   </sheetData>
@@ -2224,16 +2224,16 @@
         <v>13.1788</v>
       </c>
       <c r="C2" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D2" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -2271,34 +2271,34 @@
         <v>14.5668</v>
       </c>
       <c r="C3" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D3" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E3" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>617.6232</v>
+        <v>621.8953</v>
       </c>
       <c r="G3" s="1">
         <v>20050</v>
       </c>
       <c r="H3" s="1">
-        <v>11053.2067</v>
+        <v>11009.0722</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11053.2067</v>
+        <v>11009.0722</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -2310,10 +2310,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-8996.793299999999</v>
+        <v>-9077.184300000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.1053</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -2324,49 +2324,49 @@
         <v>13.962</v>
       </c>
       <c r="C4" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D4" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E4" s="1">
-        <v>1376.4176</v>
+        <v>1379.1728</v>
       </c>
       <c r="F4" s="1">
-        <v>783.033</v>
+        <v>780.7588</v>
       </c>
       <c r="G4" s="1">
         <v>30150.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19217.5426</v>
+        <v>19217.5313</v>
       </c>
       <c r="I4" s="1">
-        <v>1003.2067</v>
+        <v>922.8157</v>
       </c>
       <c r="J4" s="1">
-        <v>20220.7493</v>
+        <v>20140.347</v>
       </c>
       <c r="K4" s="1">
-        <v>18996.7933</v>
+        <v>19077.1843</v>
       </c>
       <c r="L4" s="1">
-        <v>13.8016</v>
+        <v>13.8323</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>341.4575</v>
+        <v>340.7748</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10591.2499</v>
+        <v>-10582.0408</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0395</v>
+        <v>-0.0414</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -2377,34 +2377,34 @@
         <v>12.2659</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E5" s="1">
-        <v>2159.4507</v>
+        <v>2159.9316</v>
       </c>
       <c r="F5" s="1">
-        <v>848.8539</v>
+        <v>841.3632</v>
       </c>
       <c r="G5" s="1">
         <v>40301.0012</v>
       </c>
       <c r="H5" s="1">
-        <v>26487.6057</v>
+        <v>26440.5864</v>
       </c>
       <c r="I5" s="1">
-        <v>411.9568</v>
+        <v>340.7748</v>
       </c>
       <c r="J5" s="1">
-        <v>26899.5625</v>
+        <v>26781.3612</v>
       </c>
       <c r="K5" s="1">
-        <v>29929.5007</v>
+        <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.8598</v>
+        <v>13.8893</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -2416,10 +2416,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10411.9568</v>
+        <v>-10340.7748</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.1099</v>
+        <v>-0.1114</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -2430,34 +2430,34 @@
         <v>12.4103</v>
       </c>
       <c r="C6" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D6" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E6" s="1">
-        <v>3008.3045</v>
+        <v>3001.2948</v>
       </c>
       <c r="F6" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G6" s="1">
         <v>50502.5063</v>
       </c>
       <c r="H6" s="1">
-        <v>37333.9617</v>
+        <v>37172.5369</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37333.9617</v>
+        <v>37172.5369</v>
       </c>
       <c r="K6" s="1">
-        <v>40341.4575</v>
+        <v>40340.7748</v>
       </c>
       <c r="L6" s="1">
-        <v>13.41</v>
+        <v>13.4411</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -2472,7 +2472,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0118</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -2483,49 +2483,49 @@
         <v>12.3976</v>
       </c>
       <c r="C7" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D7" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E7" s="1">
-        <v>3814.0868</v>
+        <v>3805.4636</v>
       </c>
       <c r="F7" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G7" s="1">
         <v>60755.0188</v>
       </c>
       <c r="H7" s="1">
-        <v>47285.5228</v>
+        <v>47084.2403</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47285.5228</v>
+        <v>47084.2403</v>
       </c>
       <c r="K7" s="1">
-        <v>50341.4575</v>
+        <v>50340.7748</v>
       </c>
       <c r="L7" s="1">
-        <v>13.1988</v>
+        <v>13.2286</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1353.737</v>
+        <v>1350.5827</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8646.263000000001</v>
+        <v>-8649.417299999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.001</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -2536,34 +2536,34 @@
         <v>12.9013</v>
       </c>
       <c r="C8" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D8" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E8" s="1">
-        <v>4620.6946</v>
+        <v>4610.461</v>
       </c>
       <c r="F8" s="1">
-        <v>880.0391</v>
+        <v>878.0388</v>
       </c>
       <c r="G8" s="1">
         <v>71058.7939</v>
       </c>
       <c r="H8" s="1">
-        <v>59612.9667</v>
+        <v>59361.9912</v>
       </c>
       <c r="I8" s="1">
-        <v>1353.737</v>
+        <v>1350.5827</v>
       </c>
       <c r="J8" s="1">
-        <v>60966.7037</v>
+        <v>60712.5739</v>
       </c>
       <c r="K8" s="1">
-        <v>60341.4575</v>
+        <v>60340.7748</v>
       </c>
       <c r="L8" s="1">
-        <v>13.059</v>
+        <v>13.0878</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -2575,10 +2575,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11353.737</v>
+        <v>-11350.5827</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0643</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -2589,34 +2589,34 @@
         <v>13.3527</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E9" s="1">
-        <v>5500.7337</v>
+        <v>5488.4998</v>
       </c>
       <c r="F9" s="1">
-        <v>596.4666999999999</v>
+        <v>620.917</v>
       </c>
       <c r="G9" s="1">
         <v>81414.0879</v>
       </c>
       <c r="H9" s="1">
-        <v>73449.64690000001</v>
+        <v>73139.7484</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>73449.64690000001</v>
+        <v>73139.7484</v>
       </c>
       <c r="K9" s="1">
-        <v>71695.1945</v>
+        <v>71691.3575</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0338</v>
+        <v>13.0621</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -2628,10 +2628,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-7964.441</v>
+        <v>-8307.558499999999</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.035</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -2642,49 +2642,49 @@
         <v>13.8804</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E10" s="1">
-        <v>6097.2004</v>
+        <v>6109.4168</v>
       </c>
       <c r="F10" s="1">
-        <v>517.9662</v>
+        <v>519.0254</v>
       </c>
       <c r="G10" s="1">
         <v>91821.1583</v>
       </c>
       <c r="H10" s="1">
-        <v>84631.5805</v>
+        <v>84631.3067</v>
       </c>
       <c r="I10" s="1">
-        <v>2035.559</v>
+        <v>1692.4415</v>
       </c>
       <c r="J10" s="1">
-        <v>86667.1395</v>
+        <v>86323.74830000001</v>
       </c>
       <c r="K10" s="1">
-        <v>79659.6355</v>
+        <v>79998.916</v>
       </c>
       <c r="L10" s="1">
-        <v>13.065</v>
+        <v>13.0944</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2475.3302</v>
+        <v>2469.8249</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-4714.2476</v>
+        <v>-4748.8845</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0386</v>
+        <v>0.0383</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -2695,34 +2695,34 @@
         <v>14.6268</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E11" s="1">
-        <v>6615.1666</v>
+        <v>6628.4422</v>
       </c>
       <c r="F11" s="1">
-        <v>377.4951</v>
+        <v>378.2071</v>
       </c>
       <c r="G11" s="1">
         <v>102280.2641</v>
       </c>
       <c r="H11" s="1">
-        <v>96758.71859999999</v>
+        <v>96759.3477</v>
       </c>
       <c r="I11" s="1">
-        <v>7321.3114</v>
+        <v>6943.5571</v>
       </c>
       <c r="J11" s="1">
-        <v>104080.03</v>
+        <v>103702.9048</v>
       </c>
       <c r="K11" s="1">
-        <v>86849.2133</v>
+        <v>87217.6254</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1288</v>
+        <v>13.1581</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -2734,10 +2734,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-5521.5455</v>
+        <v>-5543.0415</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.0767</v>
+        <v>0.0766</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -2748,34 +2748,34 @@
         <v>15.3636</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E12" s="1">
-        <v>6992.6617</v>
+        <v>7006.6493</v>
       </c>
       <c r="F12" s="1">
-        <v>348.825</v>
+        <v>349.5368</v>
       </c>
       <c r="G12" s="1">
         <v>112791.6654</v>
       </c>
       <c r="H12" s="1">
-        <v>107432.4572</v>
+        <v>107432.2533</v>
       </c>
       <c r="I12" s="1">
-        <v>11799.766</v>
+        <v>11400.5156</v>
       </c>
       <c r="J12" s="1">
-        <v>119232.2232</v>
+        <v>118832.7689</v>
       </c>
       <c r="K12" s="1">
-        <v>92370.75870000001</v>
+        <v>92760.66680000001</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2097</v>
+        <v>13.2389</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -2787,10 +2787,10 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-5359.2082</v>
+        <v>-5380.9086</v>
       </c>
       <c r="Q12" s="3">
-        <v>0.0452</v>
+        <v>0.0451</v>
       </c>
     </row>
     <row r="13" spans="1:17">
@@ -2801,49 +2801,49 @@
         <v>13.8711</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E13" s="1">
-        <v>7341.4867</v>
+        <v>7356.1861</v>
       </c>
       <c r="F13" s="1">
-        <v>1551.5083</v>
+        <v>1554.6035</v>
       </c>
       <c r="G13" s="1">
         <v>123355.6237</v>
       </c>
       <c r="H13" s="1">
-        <v>101834.4965</v>
+        <v>101834.6262</v>
       </c>
       <c r="I13" s="1">
-        <v>16440.5578</v>
+        <v>16019.607</v>
       </c>
       <c r="J13" s="1">
-        <v>118275.0542</v>
+        <v>117854.2332</v>
       </c>
       <c r="K13" s="1">
-        <v>97729.9669</v>
+        <v>98141.5754</v>
       </c>
       <c r="L13" s="1">
-        <v>13.312</v>
+        <v>13.3414</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3146.6978</v>
+        <v>3152.9922</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-18374.4295</v>
+        <v>-18454.2858</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0848</v>
+        <v>-0.0852</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -2854,34 +2854,34 @@
         <v>14.1252</v>
       </c>
       <c r="C14" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D14" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E14" s="1">
-        <v>8892.9951</v>
+        <v>8910.789500000001</v>
       </c>
       <c r="F14" s="1">
-        <v>-8892.9951</v>
+        <v>-8910.789500000001</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>125615.3338</v>
+        <v>125615.4</v>
       </c>
       <c r="I14" s="1">
-        <v>8066.1283</v>
+        <v>7565.3212</v>
       </c>
       <c r="J14" s="1">
-        <v>133681.4621</v>
+        <v>133180.7212</v>
       </c>
       <c r="K14" s="1">
-        <v>119251.0942</v>
+        <v>119748.8534</v>
       </c>
       <c r="L14" s="1">
-        <v>13.4096</v>
+        <v>13.4386</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -2893,10 +2893,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>125615.3338</v>
+        <v>125615.4</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0421</v>
+        <v>0.0417</v>
       </c>
     </row>
   </sheetData>
@@ -2992,16 +2992,16 @@
         <v>13.1788</v>
       </c>
       <c r="C2" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D2" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3039,34 +3039,34 @@
         <v>14.5668</v>
       </c>
       <c r="C3" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D3" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E3" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>621.0556</v>
+        <v>625.3347</v>
       </c>
       <c r="G3" s="1">
         <v>20100</v>
       </c>
       <c r="H3" s="1">
-        <v>11053.2067</v>
+        <v>11009.0722</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11053.2067</v>
+        <v>11009.0722</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3078,10 +3078,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9046.793299999999</v>
+        <v>-9127.3848</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.1053</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3092,49 +3092,49 @@
         <v>13.962</v>
       </c>
       <c r="C4" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D4" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E4" s="1">
-        <v>1379.8501</v>
+        <v>1382.6121</v>
       </c>
       <c r="F4" s="1">
-        <v>784.5013</v>
+        <v>777.1704999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30301</v>
       </c>
       <c r="H4" s="1">
-        <v>19265.4667</v>
+        <v>19265.4553</v>
       </c>
       <c r="I4" s="1">
-        <v>953.2067</v>
+        <v>872.6152</v>
       </c>
       <c r="J4" s="1">
-        <v>20218.6733</v>
+        <v>20138.0705</v>
       </c>
       <c r="K4" s="1">
-        <v>19046.7933</v>
+        <v>19127.3848</v>
       </c>
       <c r="L4" s="1">
-        <v>13.8035</v>
+        <v>13.8342</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>341.4575</v>
+        <v>340.7748</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10611.7492</v>
+        <v>-10531.8403</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0396</v>
+        <v>-0.0415</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3145,34 +3145,34 @@
         <v>12.2659</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E5" s="1">
-        <v>2164.3513</v>
+        <v>2159.7826</v>
       </c>
       <c r="F5" s="1">
-        <v>843.1063</v>
+        <v>841.3632</v>
       </c>
       <c r="G5" s="1">
         <v>40604.01</v>
       </c>
       <c r="H5" s="1">
-        <v>26547.717</v>
+        <v>26438.7627</v>
       </c>
       <c r="I5" s="1">
-        <v>341.4575</v>
+        <v>340.7748</v>
       </c>
       <c r="J5" s="1">
-        <v>26889.1745</v>
+        <v>26779.5375</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.861</v>
+        <v>13.8903</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3184,10 +3184,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10341.4575</v>
+        <v>-10340.7748</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.1102</v>
+        <v>-0.1114</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3198,34 +3198,34 @@
         <v>12.4103</v>
       </c>
       <c r="C6" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D6" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E6" s="1">
-        <v>3007.4576</v>
+        <v>3001.1458</v>
       </c>
       <c r="F6" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G6" s="1">
         <v>51010.0501</v>
       </c>
       <c r="H6" s="1">
-        <v>37323.4514</v>
+        <v>37170.6917</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37323.4514</v>
+        <v>37170.6917</v>
       </c>
       <c r="K6" s="1">
-        <v>40341.4575</v>
+        <v>40340.7748</v>
       </c>
       <c r="L6" s="1">
-        <v>13.4138</v>
+        <v>13.4418</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0118</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -3251,49 +3251,49 @@
         <v>12.3976</v>
       </c>
       <c r="C7" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D7" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E7" s="1">
-        <v>3813.2399</v>
+        <v>3805.3146</v>
       </c>
       <c r="F7" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G7" s="1">
         <v>61520.1506</v>
       </c>
       <c r="H7" s="1">
-        <v>47275.0233</v>
+        <v>47082.397</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47275.0233</v>
+        <v>47082.397</v>
       </c>
       <c r="K7" s="1">
-        <v>50341.4575</v>
+        <v>50340.7748</v>
       </c>
       <c r="L7" s="1">
-        <v>13.2018</v>
+        <v>13.2291</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1353.3559</v>
+        <v>1350.5156</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8646.6441</v>
+        <v>-8649.484399999999</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.001</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -3304,34 +3304,34 @@
         <v>12.9013</v>
       </c>
       <c r="C8" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D8" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E8" s="1">
-        <v>4619.8477</v>
+        <v>4610.3121</v>
       </c>
       <c r="F8" s="1">
-        <v>880.0096</v>
+        <v>878.0336</v>
       </c>
       <c r="G8" s="1">
         <v>72135.3521</v>
       </c>
       <c r="H8" s="1">
-        <v>59602.0405</v>
+        <v>59360.073</v>
       </c>
       <c r="I8" s="1">
-        <v>1353.3559</v>
+        <v>1350.5156</v>
       </c>
       <c r="J8" s="1">
-        <v>60955.3965</v>
+        <v>60710.5886</v>
       </c>
       <c r="K8" s="1">
-        <v>60341.4575</v>
+        <v>60340.7748</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0614</v>
+        <v>13.0882</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -3343,10 +3343,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11353.3559</v>
+        <v>-11350.5156</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0643</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -3357,34 +3357,34 @@
         <v>13.3527</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E9" s="1">
-        <v>5499.8573</v>
+        <v>5488.3456</v>
       </c>
       <c r="F9" s="1">
-        <v>705.3826</v>
+        <v>729.327</v>
       </c>
       <c r="G9" s="1">
         <v>82856.7056</v>
       </c>
       <c r="H9" s="1">
-        <v>73437.944</v>
+        <v>73137.694</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>73437.944</v>
+        <v>73137.694</v>
       </c>
       <c r="K9" s="1">
-        <v>71694.8134</v>
+        <v>71691.2905</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0358</v>
+        <v>13.0625</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -3396,10 +3396,10 @@
         <v>10000</v>
       </c>
       <c r="P9" s="1">
-        <v>-9418.7616</v>
+        <v>-9758.0306</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.035</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -3410,49 +3410,49 @@
         <v>13.8804</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E10" s="1">
-        <v>6205.2398</v>
+        <v>6217.6726</v>
       </c>
       <c r="F10" s="1">
-        <v>544.2251</v>
+        <v>545.3374</v>
       </c>
       <c r="G10" s="1">
         <v>93685.2727</v>
       </c>
       <c r="H10" s="1">
-        <v>86131.2107</v>
+        <v>86130.932</v>
       </c>
       <c r="I10" s="1">
-        <v>581.2384</v>
+        <v>241.9694</v>
       </c>
       <c r="J10" s="1">
-        <v>86712.4491</v>
+        <v>86372.9014</v>
       </c>
       <c r="K10" s="1">
-        <v>81113.575</v>
+        <v>81449.3211</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0718</v>
+        <v>13.0996</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2474.9358</v>
+        <v>2469.7555</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-5079.1262</v>
+        <v>-5114.9059</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0392</v>
+        <v>0.0389</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -3463,34 +3463,34 @@
         <v>14.6268</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E11" s="1">
-        <v>6749.4649</v>
+        <v>6763.01</v>
       </c>
       <c r="F11" s="1">
-        <v>403.3044</v>
+        <v>404.0671</v>
       </c>
       <c r="G11" s="1">
         <v>104622.1254</v>
       </c>
       <c r="H11" s="1">
-        <v>98723.0733</v>
+        <v>98723.71520000001</v>
       </c>
       <c r="I11" s="1">
-        <v>5502.1122</v>
+        <v>5127.0635</v>
       </c>
       <c r="J11" s="1">
-        <v>104225.1855</v>
+        <v>103850.7787</v>
       </c>
       <c r="K11" s="1">
-        <v>88667.637</v>
+        <v>89033.9825</v>
       </c>
       <c r="L11" s="1">
-        <v>13.137</v>
+        <v>13.1648</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -3502,10 +3502,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-5899.0521</v>
+        <v>-5922.0482</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.07770000000000001</v>
+        <v>0.0776</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -3516,34 +3516,34 @@
         <v>15.3636</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E12" s="1">
-        <v>7152.7693</v>
+        <v>7167.0772</v>
       </c>
       <c r="F12" s="1">
-        <v>375.9575</v>
+        <v>376.7239</v>
       </c>
       <c r="G12" s="1">
         <v>115668.3467</v>
       </c>
       <c r="H12" s="1">
-        <v>109892.2858</v>
+        <v>109892.0772</v>
       </c>
       <c r="I12" s="1">
-        <v>9603.059999999999</v>
+        <v>9205.015299999999</v>
       </c>
       <c r="J12" s="1">
-        <v>119495.3458</v>
+        <v>119097.0926</v>
       </c>
       <c r="K12" s="1">
-        <v>94566.6891</v>
+        <v>94956.0307</v>
       </c>
       <c r="L12" s="1">
-        <v>13.221</v>
+        <v>13.2489</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -3555,7 +3555,7 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-5776.0609</v>
+        <v>-5799.4379</v>
       </c>
       <c r="Q12" s="3">
         <v>0.0461</v>
@@ -3569,49 +3569,49 @@
         <v>13.8711</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E13" s="1">
-        <v>7528.7268</v>
+        <v>7543.801</v>
       </c>
       <c r="F13" s="1">
-        <v>1614.3859</v>
+        <v>1617.6066</v>
       </c>
       <c r="G13" s="1">
         <v>126825.0301</v>
       </c>
       <c r="H13" s="1">
-        <v>104431.722</v>
+        <v>104431.855</v>
       </c>
       <c r="I13" s="1">
-        <v>13826.9992</v>
+        <v>13405.5774</v>
       </c>
       <c r="J13" s="1">
-        <v>118258.7211</v>
+        <v>117837.4325</v>
       </c>
       <c r="K13" s="1">
-        <v>100342.75</v>
+        <v>100755.4686</v>
       </c>
       <c r="L13" s="1">
-        <v>13.328</v>
+        <v>13.3561</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3218.7462</v>
+        <v>3225.1847</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-19174.562</v>
+        <v>-19257.7675</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0868</v>
+        <v>-0.0872</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -3622,34 +3622,34 @@
         <v>14.1252</v>
       </c>
       <c r="C14" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D14" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E14" s="1">
-        <v>9143.1127</v>
+        <v>9161.4076</v>
       </c>
       <c r="F14" s="1">
-        <v>-9143.1127</v>
+        <v>-9161.4076</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>129148.2951</v>
+        <v>129148.3631</v>
       </c>
       <c r="I14" s="1">
-        <v>4652.4372</v>
+        <v>4147.8099</v>
       </c>
       <c r="J14" s="1">
-        <v>133800.7322</v>
+        <v>133296.173</v>
       </c>
       <c r="K14" s="1">
-        <v>122736.0582</v>
+        <v>123238.4209</v>
       </c>
       <c r="L14" s="1">
-        <v>13.4239</v>
+        <v>13.4519</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -3661,10 +3661,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>129148.2951</v>
+        <v>129148.3631</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.0432</v>
+        <v>0.0427</v>
       </c>
     </row>
   </sheetData>
@@ -3760,16 +3760,16 @@
         <v>13.1788</v>
       </c>
       <c r="C2" s="1">
-        <v>13.1788</v>
+        <v>13.1524</v>
       </c>
       <c r="D2" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="E2" s="1">
         <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="G2" s="1">
         <v>10000</v>
@@ -3807,34 +3807,34 @@
         <v>14.5668</v>
       </c>
       <c r="C3" s="1">
-        <v>14.5668</v>
+        <v>14.5377</v>
       </c>
       <c r="D3" s="1">
-        <v>14.5668</v>
+        <v>14.596</v>
       </c>
       <c r="E3" s="1">
-        <v>758.7944</v>
+        <v>757.2773999999999</v>
       </c>
       <c r="F3" s="1">
-        <v>624.4881</v>
+        <v>628.774</v>
       </c>
       <c r="G3" s="1">
         <v>20150</v>
       </c>
       <c r="H3" s="1">
-        <v>11053.2067</v>
+        <v>11009.0722</v>
       </c>
       <c r="I3" s="1">
         <v>0</v>
       </c>
       <c r="J3" s="1">
-        <v>11053.2067</v>
+        <v>11009.0722</v>
       </c>
       <c r="K3" s="1">
         <v>10000</v>
       </c>
       <c r="L3" s="1">
-        <v>13.1788</v>
+        <v>13.2052</v>
       </c>
       <c r="M3" s="1">
         <v>0</v>
@@ -3846,10 +3846,10 @@
         <v>10000</v>
       </c>
       <c r="P3" s="1">
-        <v>-9096.793299999999</v>
+        <v>-9177.585300000001</v>
       </c>
       <c r="Q3" s="3">
-        <v>0.1053</v>
+        <v>0.1009</v>
       </c>
     </row>
     <row r="4" spans="1:17">
@@ -3860,49 +3860,49 @@
         <v>13.962</v>
       </c>
       <c r="C4" s="1">
-        <v>13.962</v>
+        <v>13.9341</v>
       </c>
       <c r="D4" s="1">
-        <v>13.962</v>
+        <v>13.99</v>
       </c>
       <c r="E4" s="1">
-        <v>1383.2825</v>
+        <v>1386.0514</v>
       </c>
       <c r="F4" s="1">
-        <v>780.9201</v>
+        <v>773.5821999999999</v>
       </c>
       <c r="G4" s="1">
         <v>30452.25</v>
       </c>
       <c r="H4" s="1">
-        <v>19313.3907</v>
+        <v>19313.3794</v>
       </c>
       <c r="I4" s="1">
-        <v>903.2067</v>
+        <v>822.4147</v>
       </c>
       <c r="J4" s="1">
-        <v>20216.5974</v>
+        <v>20135.794</v>
       </c>
       <c r="K4" s="1">
-        <v>19096.7933</v>
+        <v>19177.5853</v>
       </c>
       <c r="L4" s="1">
-        <v>13.8054</v>
+        <v>13.8361</v>
       </c>
       <c r="M4" s="1">
         <v>0.5</v>
       </c>
       <c r="N4" s="1">
-        <v>341.4575</v>
+        <v>340.7748</v>
       </c>
       <c r="O4" s="1">
         <v>10000</v>
       </c>
       <c r="P4" s="1">
-        <v>-10561.7492</v>
+        <v>-10481.6398</v>
       </c>
       <c r="Q4" s="3">
-        <v>-0.0397</v>
+        <v>-0.0416</v>
       </c>
     </row>
     <row r="5" spans="1:17">
@@ -3913,34 +3913,34 @@
         <v>12.2659</v>
       </c>
       <c r="C5" s="1">
-        <v>12.2659</v>
+        <v>12.2414</v>
       </c>
       <c r="D5" s="1">
-        <v>12.2659</v>
+        <v>12.2905</v>
       </c>
       <c r="E5" s="1">
-        <v>2164.2026</v>
+        <v>2159.6336</v>
       </c>
       <c r="F5" s="1">
-        <v>843.1063</v>
+        <v>841.3632</v>
       </c>
       <c r="G5" s="1">
         <v>40909.0337</v>
       </c>
       <c r="H5" s="1">
-        <v>26545.8933</v>
+        <v>26436.9389</v>
       </c>
       <c r="I5" s="1">
-        <v>341.4575</v>
+        <v>340.7748</v>
       </c>
       <c r="J5" s="1">
-        <v>26887.3508</v>
+        <v>26777.7138</v>
       </c>
       <c r="K5" s="1">
         <v>30000</v>
       </c>
       <c r="L5" s="1">
-        <v>13.8619</v>
+        <v>13.8912</v>
       </c>
       <c r="M5" s="1">
         <v>0</v>
@@ -3952,10 +3952,10 @@
         <v>10000</v>
       </c>
       <c r="P5" s="1">
-        <v>-10341.4575</v>
+        <v>-10340.7748</v>
       </c>
       <c r="Q5" s="3">
-        <v>-0.1102</v>
+        <v>-0.1114</v>
       </c>
     </row>
     <row r="6" spans="1:17">
@@ -3966,34 +3966,34 @@
         <v>12.4103</v>
       </c>
       <c r="C6" s="1">
-        <v>12.4103</v>
+        <v>12.3855</v>
       </c>
       <c r="D6" s="1">
-        <v>12.4103</v>
+        <v>12.4352</v>
       </c>
       <c r="E6" s="1">
-        <v>3007.3089</v>
+        <v>3000.9969</v>
       </c>
       <c r="F6" s="1">
-        <v>805.7823</v>
+        <v>804.1688</v>
       </c>
       <c r="G6" s="1">
         <v>51522.6693</v>
       </c>
       <c r="H6" s="1">
-        <v>37321.6062</v>
+        <v>37168.8465</v>
       </c>
       <c r="I6" s="1">
         <v>0</v>
       </c>
       <c r="J6" s="1">
-        <v>37321.6062</v>
+        <v>37168.8465</v>
       </c>
       <c r="K6" s="1">
-        <v>40341.4575</v>
+        <v>40340.7748</v>
       </c>
       <c r="L6" s="1">
-        <v>13.4145</v>
+        <v>13.4425</v>
       </c>
       <c r="M6" s="1">
         <v>0</v>
@@ -4008,7 +4008,7 @@
         <v>-10000</v>
       </c>
       <c r="Q6" s="3">
-        <v>0.0118</v>
+        <v>0.0106</v>
       </c>
     </row>
     <row r="7" spans="1:17">
@@ -4019,49 +4019,49 @@
         <v>12.3976</v>
       </c>
       <c r="C7" s="1">
-        <v>12.3976</v>
+        <v>12.3728</v>
       </c>
       <c r="D7" s="1">
-        <v>12.3976</v>
+        <v>12.4224</v>
       </c>
       <c r="E7" s="1">
-        <v>3813.0912</v>
+        <v>3805.1657</v>
       </c>
       <c r="F7" s="1">
-        <v>806.6077</v>
+        <v>804.9974</v>
       </c>
       <c r="G7" s="1">
         <v>62295.5093</v>
       </c>
       <c r="H7" s="1">
-        <v>47273.1799</v>
+        <v>47080.5537</v>
       </c>
       <c r="I7" s="1">
         <v>0</v>
       </c>
       <c r="J7" s="1">
-        <v>47273.1799</v>
+        <v>47080.5537</v>
       </c>
       <c r="K7" s="1">
-        <v>50341.4575</v>
+        <v>50340.7748</v>
       </c>
       <c r="L7" s="1">
-        <v>13.2023</v>
+        <v>13.2296</v>
       </c>
       <c r="M7" s="1">
         <v>0.5</v>
       </c>
       <c r="N7" s="1">
-        <v>1353.289</v>
+        <v>1350.4486</v>
       </c>
       <c r="O7" s="1">
         <v>10000</v>
       </c>
       <c r="P7" s="1">
-        <v>-8646.710999999999</v>
+        <v>-8649.5514</v>
       </c>
       <c r="Q7" s="3">
-        <v>-0.001</v>
+        <v>-0.0019</v>
       </c>
     </row>
     <row r="8" spans="1:17">
@@ -4072,34 +4072,34 @@
         <v>12.9013</v>
       </c>
       <c r="C8" s="1">
-        <v>12.9013</v>
+        <v>12.8755</v>
       </c>
       <c r="D8" s="1">
-        <v>12.9014</v>
+        <v>12.9272</v>
       </c>
       <c r="E8" s="1">
-        <v>4619.699</v>
+        <v>4610.1631</v>
       </c>
       <c r="F8" s="1">
-        <v>880.0044</v>
+        <v>878.0284</v>
       </c>
       <c r="G8" s="1">
         <v>73229.94190000001</v>
       </c>
       <c r="H8" s="1">
-        <v>59600.1223</v>
+        <v>59358.1548</v>
       </c>
       <c r="I8" s="1">
-        <v>1353.289</v>
+        <v>1350.4486</v>
       </c>
       <c r="J8" s="1">
-        <v>60953.4113</v>
+        <v>60708.6034</v>
       </c>
       <c r="K8" s="1">
-        <v>60341.4575</v>
+        <v>60340.7748</v>
       </c>
       <c r="L8" s="1">
-        <v>13.0618</v>
+        <v>13.0886</v>
       </c>
       <c r="M8" s="1">
         <v>0</v>
@@ -4111,10 +4111,10 @@
         <v>10000</v>
       </c>
       <c r="P8" s="1">
-        <v>-11353.289</v>
+        <v>-11350.4486</v>
       </c>
       <c r="Q8" s="3">
-        <v>0.0643</v>
+        <v>0.0636</v>
       </c>
     </row>
     <row r="9" spans="1:17">
@@ -4125,34 +4125,34 @@
         <v>13.3527</v>
       </c>
       <c r="C9" s="1">
-        <v>13.3527</v>
+        <v>13.326</v>
       </c>
       <c r="D9" s="1">
-        <v>13.3527</v>
+        <v>13.3795</v>
       </c>
       <c r="E9" s="1">
-        <v>5499.7034</v>
+        <v>5488.1915</v>
       </c>
       <c r="F9" s="1">
-        <v>748.9122</v>
+        <v>747.4121</v>
       </c>
       <c r="G9" s="1">
         <v>84328.39109999999</v>
       </c>
       <c r="H9" s="1">
-        <v>73435.8894</v>
+        <v>73135.63959999999</v>
       </c>
       <c r="I9" s="1">
         <v>0</v>
       </c>
       <c r="J9" s="1">
-        <v>73435.8894</v>
+        <v>73135.63959999999</v>
       </c>
       <c r="K9" s="1">
-        <v>71694.74649999999</v>
+        <v>71691.2234</v>
       </c>
       <c r="L9" s="1">
-        <v>13.0361</v>
+        <v>13.0628</v>
       </c>
       <c r="M9" s="1">
         <v>0</v>
@@ -4167,7 +4167,7 @@
         <v>-10000</v>
       </c>
       <c r="Q9" s="3">
-        <v>0.035</v>
+        <v>0.0343</v>
       </c>
     </row>
     <row r="10" spans="1:17">
@@ -4178,49 +4178,49 @@
         <v>13.8804</v>
       </c>
       <c r="C10" s="1">
-        <v>13.8804</v>
+        <v>13.8526</v>
       </c>
       <c r="D10" s="1">
-        <v>13.8804</v>
+        <v>13.9082</v>
       </c>
       <c r="E10" s="1">
-        <v>6248.6156</v>
+        <v>6235.6036</v>
       </c>
       <c r="F10" s="1">
-        <v>638.3125</v>
+        <v>665.1455</v>
       </c>
       <c r="G10" s="1">
         <v>95593.31690000001</v>
       </c>
       <c r="H10" s="1">
-        <v>86733.28389999999</v>
+        <v>86379.3219</v>
       </c>
       <c r="I10" s="1">
         <v>0</v>
       </c>
       <c r="J10" s="1">
-        <v>86733.28389999999</v>
+        <v>86379.3219</v>
       </c>
       <c r="K10" s="1">
-        <v>81694.74649999999</v>
+        <v>81691.2234</v>
       </c>
       <c r="L10" s="1">
-        <v>13.0741</v>
+        <v>13.1008</v>
       </c>
       <c r="M10" s="1">
         <v>0.5</v>
       </c>
       <c r="N10" s="1">
-        <v>2474.8665</v>
+        <v>2469.6862</v>
       </c>
       <c r="O10" s="1">
         <v>10000</v>
       </c>
       <c r="P10" s="1">
-        <v>-6385.1665</v>
+        <v>-6781.291</v>
       </c>
       <c r="Q10" s="3">
-        <v>0.0395</v>
+        <v>0.039</v>
       </c>
     </row>
     <row r="11" spans="1:17">
@@ -4231,34 +4231,34 @@
         <v>14.6268</v>
       </c>
       <c r="C11" s="1">
-        <v>14.6268</v>
+        <v>14.5976</v>
       </c>
       <c r="D11" s="1">
-        <v>14.6268</v>
+        <v>14.6561</v>
       </c>
       <c r="E11" s="1">
-        <v>6886.9281</v>
+        <v>6900.7491</v>
       </c>
       <c r="F11" s="1">
-        <v>430.2716</v>
+        <v>431.0874</v>
       </c>
       <c r="G11" s="1">
         <v>107027.2167</v>
       </c>
       <c r="H11" s="1">
-        <v>100733.7201</v>
+        <v>100734.375</v>
       </c>
       <c r="I11" s="1">
-        <v>3614.8335</v>
+        <v>3218.709</v>
       </c>
       <c r="J11" s="1">
-        <v>104348.5535</v>
+        <v>103953.084</v>
       </c>
       <c r="K11" s="1">
-        <v>90554.77959999999</v>
+        <v>90942.2006</v>
       </c>
       <c r="L11" s="1">
-        <v>13.1488</v>
+        <v>13.1786</v>
       </c>
       <c r="M11" s="1">
         <v>0</v>
@@ -4270,10 +4270,10 @@
         <v>10000</v>
       </c>
       <c r="P11" s="1">
-        <v>-6293.4966</v>
+        <v>-6318.0603</v>
       </c>
       <c r="Q11" s="3">
-        <v>0.07870000000000001</v>
+        <v>0.0786</v>
       </c>
     </row>
     <row r="12" spans="1:17">
@@ -4284,34 +4284,34 @@
         <v>15.3636</v>
       </c>
       <c r="C12" s="1">
-        <v>15.3636</v>
+        <v>15.3329</v>
       </c>
       <c r="D12" s="1">
-        <v>15.3636</v>
+        <v>15.3944</v>
       </c>
       <c r="E12" s="1">
-        <v>7317.1997</v>
+        <v>7331.8365</v>
       </c>
       <c r="F12" s="1">
-        <v>404.4687</v>
+        <v>405.2925</v>
       </c>
       <c r="G12" s="1">
         <v>118632.6249</v>
       </c>
       <c r="H12" s="1">
-        <v>112418.5294</v>
+        <v>112418.3161</v>
       </c>
       <c r="I12" s="1">
-        <v>7321.3369</v>
+        <v>6900.6487</v>
       </c>
       <c r="J12" s="1">
-        <v>119739.8663</v>
+        <v>119318.9648</v>
       </c>
       <c r="K12" s="1">
-        <v>96848.27619999999</v>
+        <v>97260.26089999999</v>
       </c>
       <c r="L12" s="1">
-        <v>13.2357</v>
+        <v>13.2655</v>
       </c>
       <c r="M12" s="1">
         <v>0</v>
@@ -4323,7 +4323,7 @@
         <v>10000</v>
       </c>
       <c r="P12" s="1">
-        <v>-6214.0955</v>
+        <v>-6239.2343</v>
       </c>
       <c r="Q12" s="3">
         <v>0.0471</v>
@@ -4337,49 +4337,49 @@
         <v>13.8711</v>
       </c>
       <c r="C13" s="1">
-        <v>13.8711</v>
+        <v>13.8434</v>
       </c>
       <c r="D13" s="1">
-        <v>13.8711</v>
+        <v>13.8989</v>
       </c>
       <c r="E13" s="1">
-        <v>7721.6684</v>
+        <v>7737.129</v>
       </c>
       <c r="F13" s="1">
-        <v>1521.6703</v>
+        <v>1486.5503</v>
       </c>
       <c r="G13" s="1">
         <v>130412.1143</v>
       </c>
       <c r="H13" s="1">
-        <v>107108.0348</v>
+        <v>107108.1713</v>
       </c>
       <c r="I13" s="1">
-        <v>11107.2413</v>
+        <v>10661.4144</v>
       </c>
       <c r="J13" s="1">
-        <v>118215.2762</v>
+        <v>117769.5857</v>
       </c>
       <c r="K13" s="1">
-        <v>103062.3717</v>
+        <v>103499.4952</v>
       </c>
       <c r="L13" s="1">
-        <v>13.3472</v>
+        <v>13.377</v>
       </c>
       <c r="M13" s="1">
         <v>0.5</v>
       </c>
       <c r="N13" s="1">
-        <v>3292.7399</v>
+        <v>3299.3264</v>
       </c>
       <c r="O13" s="1">
         <v>10000</v>
       </c>
       <c r="P13" s="1">
-        <v>-17814.5015</v>
+        <v>-17362.088</v>
       </c>
       <c r="Q13" s="3">
-        <v>-0.0888</v>
+        <v>-0.0893</v>
       </c>
     </row>
     <row r="14" spans="1:17">
@@ -4390,34 +4390,34 @@
         <v>14.1252</v>
       </c>
       <c r="C14" s="1">
-        <v>14.1252</v>
+        <v>14.097</v>
       </c>
       <c r="D14" s="1">
-        <v>14.1252</v>
+        <v>14.1535</v>
       </c>
       <c r="E14" s="1">
-        <v>9243.3388</v>
+        <v>9223.6793</v>
       </c>
       <c r="F14" s="1">
-        <v>-9243.3388</v>
+        <v>-9223.6793</v>
       </c>
       <c r="G14" s="1">
         <v>0</v>
       </c>
       <c r="H14" s="1">
-        <v>130564.0085</v>
+        <v>130026.2072</v>
       </c>
       <c r="I14" s="1">
-        <v>3292.7399</v>
+        <v>3299.3264</v>
       </c>
       <c r="J14" s="1">
-        <v>133856.7484</v>
+        <v>133325.5337</v>
       </c>
       <c r="K14" s="1">
-        <v>124169.613</v>
+        <v>124160.9096</v>
       </c>
       <c r="L14" s="1">
-        <v>13.4334</v>
+        <v>13.4611</v>
       </c>
       <c r="M14" s="1">
         <v>0</v>
@@ -4429,10 +4429,10 @@
         <v>0</v>
       </c>
       <c r="P14" s="1">
-        <v>130564.0085</v>
+        <v>130026.2072</v>
       </c>
       <c r="Q14" s="3">
-        <v>0.044</v>
+        <v>0.0435</v>
       </c>
     </row>
   </sheetData>
@@ -4454,7 +4454,7 @@
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
     <col min="5" max="5" width="10.7109375" customWidth="1"/>
     <col min="6" max="6" width="10.7109375" customWidth="1"/>
-    <col min="7" max="7" width="10.7109375" customWidth="1"/>
+    <col min="7" max="7" width="9.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
@@ -4490,19 +4490,19 @@
         <v>24</v>
       </c>
       <c r="C3" s="1">
-        <v>13.5239</v>
+        <v>13.551</v>
       </c>
       <c r="D3" s="1">
-        <v>13.3978</v>
+        <v>13.4265</v>
       </c>
       <c r="E3" s="1">
-        <v>13.4096</v>
+        <v>13.4386</v>
       </c>
       <c r="F3" s="1">
-        <v>13.4239</v>
+        <v>13.4519</v>
       </c>
       <c r="G3" s="1">
-        <v>13.4334</v>
+        <v>13.4611</v>
       </c>
     </row>
     <row r="4" spans="1:7" s="3" customFormat="1">
@@ -4513,19 +4513,19 @@
         <v>0.0935</v>
       </c>
       <c r="C4" s="3">
-        <v>0.1785</v>
+        <v>0.1659</v>
       </c>
       <c r="D4" s="3">
-        <v>0.1819</v>
+        <v>0.1696</v>
       </c>
       <c r="E4" s="3">
-        <v>0.1836</v>
+        <v>0.1712</v>
       </c>
       <c r="F4" s="3">
-        <v>0.185</v>
+        <v>0.1727</v>
       </c>
       <c r="G4" s="3">
-        <v>0.186</v>
+        <v>0.1734</v>
       </c>
     </row>
     <row r="5" spans="1:7" s="3" customFormat="1">
@@ -4536,19 +4536,19 @@
         <v>0.2159</v>
       </c>
       <c r="C5" s="3">
-        <v>0.2217</v>
+        <v>0.2208</v>
       </c>
       <c r="D5" s="3">
-        <v>0.212</v>
+        <v>0.2116</v>
       </c>
       <c r="E5" s="3">
-        <v>0.214</v>
+        <v>0.2135</v>
       </c>
       <c r="F5" s="3">
-        <v>0.2157</v>
+        <v>0.2151</v>
       </c>
       <c r="G5" s="3">
-        <v>0.2173</v>
+        <v>0.2167</v>
       </c>
     </row>
     <row r="6" spans="1:7" s="4" customFormat="1">
@@ -4559,19 +4559,19 @@
         <v>0.339</v>
       </c>
       <c r="C6" s="4">
-        <v>0.7134</v>
+        <v>0.6593</v>
       </c>
       <c r="D6" s="4">
-        <v>0.762</v>
+        <v>0.7055</v>
       </c>
       <c r="E6" s="4">
-        <v>0.7632</v>
+        <v>0.7069</v>
       </c>
       <c r="F6" s="4">
-        <v>0.7633</v>
+        <v>0.7086</v>
       </c>
       <c r="G6" s="4">
-        <v>0.7622</v>
+        <v>0.7066</v>
       </c>
     </row>
     <row r="7" spans="1:7" s="3" customFormat="1">
@@ -4579,19 +4579,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="3">
-        <v>0.2111</v>
+        <v>0.2023</v>
       </c>
       <c r="D7" s="3">
-        <v>0.2321</v>
+        <v>0.223</v>
       </c>
       <c r="E7" s="3">
-        <v>0.2313</v>
+        <v>0.2219</v>
       </c>
       <c r="F7" s="3">
-        <v>0.2298</v>
+        <v>0.2205</v>
       </c>
       <c r="G7" s="3">
-        <v>0.228</v>
+        <v>0.2186</v>
       </c>
     </row>
     <row r="8" spans="1:7" s="1" customFormat="1">
@@ -4599,19 +4599,19 @@
         <v>29</v>
       </c>
       <c r="C8" s="1">
-        <v>7555.8691</v>
+        <v>7540.6021</v>
       </c>
       <c r="D8" s="1">
-        <v>7214.0992</v>
+        <v>7221.0711</v>
       </c>
       <c r="E8" s="1">
-        <v>7317.2225</v>
+        <v>7314.1746</v>
       </c>
       <c r="F8" s="1">
-        <v>7388.4954</v>
+        <v>7386.2307</v>
       </c>
       <c r="G8" s="1">
-        <v>7462.3529</v>
+        <v>7460.236</v>
       </c>
     </row>
   </sheetData>

--- a/output/1Y_P28_KFSDIV.xlsx
+++ b/output/1Y_P28_KFSDIV.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="100" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="101" uniqueCount="31">
   <si>
     <t>NAV</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>Dividend</t>
+  </si>
+  <si>
+    <t>Wealth/Cost</t>
   </si>
 </sst>
 </file>
@@ -4442,13 +4445,13 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" customWidth="1"/>
+    <col min="1" max="1" width="12.7109375" customWidth="1"/>
     <col min="2" max="2" width="8.7109375" customWidth="1"/>
     <col min="3" max="3" width="10.7109375" customWidth="1"/>
     <col min="4" max="4" width="10.7109375" customWidth="1"/>
@@ -4614,6 +4617,26 @@
         <v>8657.4545</v>
       </c>
     </row>
+    <row r="9" spans="1:7" s="4" customFormat="1">
+      <c r="A9" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0703</v>
+      </c>
+      <c r="D9" s="4">
+        <v>1.1523</v>
+      </c>
+      <c r="E9" s="4">
+        <v>1.1218</v>
+      </c>
+      <c r="F9" s="4">
+        <v>1.0916</v>
+      </c>
+      <c r="G9" s="4">
+        <v>1.0753</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
